--- a/medicine/Soins infirmiers et profession infirmière/Samaritain_(secouriste)/Samaritain_(secouriste).xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Samaritain_(secouriste)/Samaritain_(secouriste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En Suisse, un samaritain, appelé en allemand Samariter et en italien Samaritani, est une personne non professionnelle formée aux premiers secours et formant des secouristes bénévoles.
 </t>
@@ -511,9 +523,11 @@
           <t>Mouvement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mouvement samaritain a été fondé en 1888 sous la forme d'une association à but non lucratif, apparentée à une organisation non gouvernementale. Il comprend plus de 35 000 membres répartis dans plus de 1 150 sections, elles-mêmes regroupées en associations cantonales[1]. Ces associations cantonales sont regroupées au sein des Schweizer Samariter (samaritains Suisse, abrégé sous la forme de SamCH), membre corporatif de la Croix-Rouge suisse dont le siège est à Olten[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mouvement samaritain a été fondé en 1888 sous la forme d'une association à but non lucratif, apparentée à une organisation non gouvernementale. Il comprend plus de 35 000 membres répartis dans plus de 1 150 sections, elles-mêmes regroupées en associations cantonales. Ces associations cantonales sont regroupées au sein des Schweizer Samariter (samaritains Suisse, abrégé sous la forme de SamCH), membre corporatif de la Croix-Rouge suisse dont le siège est à Olten.
 Son origine se trouve dans le mouvement lancé par Friedrich von Esmarch dans l'empire allemand.
 </t>
         </is>
@@ -543,10 +557,12 @@
           <t>Rôle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un samaritain doit suivre au moins un cours de sauveteur ainsi qu'un cours de samaritain. A titre d'exemple, dans les cantons de Vaud et de  Genève[3], ces cours ont une durée respective de 10 et 14 heures. Le samaritain peut ensuite incorporer une section locale où il doit suivre plusieurs formations supplémentaires pour devenir secouriste samaritain. Ainsi il pourra effectuer des services sanitaires lors de manifestations publiques comme privées dans un poste de secours ou de plus grosse envergure, un poste médical avancé[4].
-Les samaritains s'occupent également d'organiser des dons du sang dans les communes en collaboration avec les centres de transfusion sanguine[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un samaritain doit suivre au moins un cours de sauveteur ainsi qu'un cours de samaritain. A titre d'exemple, dans les cantons de Vaud et de  Genève, ces cours ont une durée respective de 10 et 14 heures. Le samaritain peut ensuite incorporer une section locale où il doit suivre plusieurs formations supplémentaires pour devenir secouriste samaritain. Ainsi il pourra effectuer des services sanitaires lors de manifestations publiques comme privées dans un poste de secours ou de plus grosse envergure, un poste médical avancé.
+Les samaritains s'occupent également d'organiser des dons du sang dans les communes en collaboration avec les centres de transfusion sanguine.
 Les samaritains sont engagés lors de manifestations publiques comme des concerts, rassemblements, évènements sportifs ou autres.
 </t>
         </is>
@@ -578,8 +594,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sections genevoises
-Sur le canton de Genève, il y a 12 sections communales de samaritains regroupées sous l'Association Genevoise des Sections de Samaritains[6] : Bernex, Carouge, Collonge-Bellerive, Genève-Ville, Grand-Saconnex, Lancy, Meyrin, Onex-Confignon qui regroupe Onex et Confignon, Plan-les-Ouates, Trois-Chêne qui regroupe les communes de Chêne-Bourg, Chêne-Bougeries et Thônex, Vernier et Versoix.
+          <t>Sections genevoises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le canton de Genève, il y a 12 sections communales de samaritains regroupées sous l'Association Genevoise des Sections de Samaritains : Bernex, Carouge, Collonge-Bellerive, Genève-Ville, Grand-Saconnex, Lancy, Meyrin, Onex-Confignon qui regroupe Onex et Confignon, Plan-les-Ouates, Trois-Chêne qui regroupe les communes de Chêne-Bourg, Chêne-Bougeries et Thônex, Vernier et Versoix.
 </t>
         </is>
       </c>
@@ -608,10 +629,12 @@
           <t>Personnalités connues des samaritains</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Thomas Fuchs (homme politique): Depuis 1990, président de la section de la ville de Berne[7].
-Erich Hess, vice-président de la section des samariterfhardienst Bern-Biel-Thun[8].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Thomas Fuchs (homme politique): Depuis 1990, président de la section de la ville de Berne.
+Erich Hess, vice-président de la section des samariterfhardienst Bern-Biel-Thun.</t>
         </is>
       </c>
     </row>
